--- a/1st_round_screening/ACE/iteration_2/data/transfer_2.xlsx
+++ b/1st_round_screening/ACE/iteration_2/data/transfer_2.xlsx
@@ -550,43 +550,43 @@
         <v>32</v>
       </c>
       <c r="B2" t="n">
-        <v>94.15000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>82.95</v>
+        <v>56.35</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>46.9</v>
       </c>
       <c r="G2" t="n">
-        <v>69.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>74.2</v>
+        <v>46.9</v>
       </c>
       <c r="I2" t="n">
-        <v>29.05</v>
+        <v>26.25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>81.55</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>397</v>
       </c>
       <c r="M2" t="n">
-        <v>1000</v>
+        <v>384</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -606,13 +606,13 @@
         <v>33</v>
       </c>
       <c r="B3" t="n">
-        <v>128.8</v>
+        <v>120.05</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17.15</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>106.4</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -624,25 +624,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>221.2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>106.4</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="M3" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -662,13 +662,13 @@
         <v>34</v>
       </c>
       <c r="B4" t="n">
-        <v>124.95</v>
+        <v>140.7</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>46.55</v>
       </c>
       <c r="D4" t="n">
-        <v>100.45</v>
+        <v>104.65</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -677,28 +677,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>74.55</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>50.05</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="M4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>35</v>
       </c>
       <c r="B5" t="n">
-        <v>141.75</v>
+        <v>166.6</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>53.2</v>
       </c>
       <c r="D5" t="n">
-        <v>124.6</v>
+        <v>129.85</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>83.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -748,13 +748,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="M5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>695</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
@@ -774,43 +774,43 @@
         <v>36</v>
       </c>
       <c r="B6" t="n">
-        <v>66.15000000000001</v>
+        <v>183.4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>166.6</v>
       </c>
       <c r="D6" t="n">
-        <v>68.25</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>53.55</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>65.45</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>30.45</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>54.25</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>561</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>299</v>
+        <v>1000</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>37</v>
       </c>
       <c r="B7" t="n">
-        <v>134.75</v>
+        <v>259</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>215.25</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -863,10 +863,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>1000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -886,13 +886,13 @@
         <v>38</v>
       </c>
       <c r="B8" t="n">
-        <v>105.7</v>
+        <v>176.75</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>173.25</v>
       </c>
       <c r="D8" t="n">
-        <v>105.7</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>50.75</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>87.84999999999999</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -919,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>1000</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -942,13 +942,13 @@
         <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>115.15</v>
+        <v>198.45</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>151.55</v>
       </c>
       <c r="D9" t="n">
-        <v>107.8</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -957,13 +957,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>85.75</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>41.3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1000</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -998,13 +998,13 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>119</v>
+        <v>200.55</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>149.45</v>
       </c>
       <c r="D10" t="n">
-        <v>90.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1013,13 +1013,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>117.95</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>22.75</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1000</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1046,7 +1046,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1054,13 +1054,13 @@
         <v>41</v>
       </c>
       <c r="B11" t="n">
-        <v>121.8</v>
+        <v>143.85</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>121.8</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1069,28 +1069,28 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>60.9</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>45.15</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>192.5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="M11" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
-        <v>0.35</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="12">
@@ -1110,22 +1110,22 @@
         <v>42</v>
       </c>
       <c r="B12" t="n">
-        <v>120.05</v>
+        <v>172.9</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>64.05</v>
       </c>
       <c r="D12" t="n">
-        <v>121.1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>49.35</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>59.5</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>112.7</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="M12" t="n">
-        <v>1000</v>
+        <v>363</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1158,7 +1158,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="13">
@@ -1166,28 +1166,28 @@
         <v>43</v>
       </c>
       <c r="B13" t="n">
-        <v>87.84999999999999</v>
+        <v>195.3</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>154.7</v>
       </c>
       <c r="D13" t="n">
-        <v>74.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>18.9</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.15000000000001</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>25.55</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1199,13 +1199,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1000</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1214,7 +1214,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="n">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1222,22 +1222,22 @@
         <v>44</v>
       </c>
       <c r="B14" t="n">
-        <v>127.4</v>
+        <v>199.85</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>150.15</v>
       </c>
       <c r="D14" t="n">
-        <v>123.55</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>58.45</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1255,13 +1255,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1000</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1278,10 +1278,10 @@
         <v>45</v>
       </c>
       <c r="B15" t="n">
-        <v>350</v>
+        <v>202.3</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>147.7</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1000</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1334,13 +1334,13 @@
         <v>46</v>
       </c>
       <c r="B16" t="n">
-        <v>88.90000000000001</v>
+        <v>202.3</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>147.7</v>
       </c>
       <c r="D16" t="n">
-        <v>92.75</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1349,13 +1349,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>8.75</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.65</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>40.95</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1000</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1390,28 +1390,28 @@
         <v>47</v>
       </c>
       <c r="B17" t="n">
-        <v>65.8</v>
+        <v>202.3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>147.7</v>
       </c>
       <c r="D17" t="n">
-        <v>73.84999999999999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>78.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>26.6</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1000</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
@@ -1438,7 +1438,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="n">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
